--- a/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
+++ b/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginpay\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginpay\source\repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D7B890-98BE-4040-BE4A-7AAFE7CDDDBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424945BF-9DEC-48CC-B623-1682CF600258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="プロジェクト設定" sheetId="1" r:id="rId1"/>
-    <sheet name="コントローラ" sheetId="2" r:id="rId2"/>
-    <sheet name="画面一覧" sheetId="3" r:id="rId3"/>
+    <sheet name="Project" sheetId="1" r:id="rId1"/>
+    <sheet name="ModelList" sheetId="4" r:id="rId2"/>
+    <sheet name="MethodList" sheetId="3" r:id="rId3"/>
+    <sheet name="FieldList" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -40,126 +41,167 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>戻り値</t>
+    <t>Comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Modelの名前</t>
+    <rPh sb="6" eb="8">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスコメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IsMaster</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trueならマスタデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッドの名前</t>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッドコメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親モデル</t>
     <rPh sb="0" eb="1">
-      <t>モド</t>
+      <t>オヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ModelList.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1個目のメソッド</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>引数</t>
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2個目のメソッド</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IceStorm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールドの名前</t>
+    <rPh sb="6" eb="8">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性</t>
     <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>説明</t>
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
     <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クラス(Controllerつけない)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>publicメソッド名</t>
-    <rPh sb="10" eb="11">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンポーネント名</t>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日本語画面名</t>
-    <rPh sb="0" eb="3">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>props分岐名</t>
-    <rPh sb="5" eb="7">
-      <t>ブンキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Counter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カウンター試作</t>
-    <rPh sb="5" eb="7">
-      <t>シサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カウンター本気</t>
-    <rPh sb="5" eb="7">
-      <t>ホンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vrr/TestCounter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vrr/MajiCounter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>maji</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>単独画面</t>
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点数</t>
     <rPh sb="0" eb="2">
-      <t>タンドク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Single</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表示時のfetch</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>トキ</t>
-    </rPh>
+      <t>テンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -203,8 +245,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -220,6 +263,337 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF6E0AD-361C-40CA-86EF-F85547A90E21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257675" y="0"/>
+          <a:ext cx="3248025" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>【Project】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>どうする？横に伸ばす？簡単だし。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51050A1A-6220-4B71-AB91-BD147519A59A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="200024"/>
+          <a:ext cx="3248025" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>【Model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>一覧はこうやって書こう。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>行目はフィールド名</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>行目はコメント（邪魔なら消す）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>シート名末尾に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>List</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を付ける。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E964AB-E3B5-4632-AAB7-2FB74D711318}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5343525" y="314325"/>
+          <a:ext cx="5067300" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メソッド一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>親の指定がしたい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>どのモデルのメソッドかが分かるように記述する必要がある。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Parent</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のフィールドに、「シート名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>.Key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」で指定することにする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,43 +859,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FCD6B3-85F7-4053-92DE-F912A54570AA}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC96FB49-BCED-4D5A-A01F-938BB51A6162}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45609D35-AE6B-45E8-877C-6F9D05702AE1}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -529,91 +988,157 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AE9F72-CDA4-4C7F-8140-62319153D35A}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45609D35-AE6B-45E8-877C-6F9D05702AE1}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
+++ b/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginpay\source\repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424945BF-9DEC-48CC-B623-1682CF600258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A327A47B-90E1-438F-899E-ABE6818EE74A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Project" sheetId="1" r:id="rId1"/>
-    <sheet name="ModelList" sheetId="4" r:id="rId2"/>
-    <sheet name="MethodList" sheetId="3" r:id="rId3"/>
-    <sheet name="FieldList" sheetId="5" r:id="rId4"/>
+    <sheet name="Parse" sheetId="7" r:id="rId1"/>
+    <sheet name="Project" sheetId="1" r:id="rId2"/>
+    <sheet name="ModelList" sheetId="4" r:id="rId3"/>
+    <sheet name="MethodList" sheetId="3" r:id="rId4"/>
+    <sheet name="FieldList" sheetId="5" r:id="rId5"/>
+    <sheet name="Outputs" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -49,10 +51,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Key</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -164,14 +162,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>属性</t>
     <rPh sb="0" eb="2">
       <t>ゾクセイ</t>
@@ -202,6 +192,391 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Test.cs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[StringLength(100)]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attribute</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ModelList.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■順番</t>
+    <rPh sb="1" eb="3">
+      <t>ジュンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FieldList</t>
+  </si>
+  <si>
+    <t>MethodList</t>
+  </si>
+  <si>
+    <t>ModelList</t>
+  </si>
+  <si>
+    <t>ほんとは、データ構造を読んで自動で組み立てができたら良いのだが。</t>
+    <rPh sb="8" eb="10">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>余裕ができたら実装だな。</t>
+    <rPh sb="0" eb="2">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■スクリプトとデータシートの対応（リスト明細、または単体）</t>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■親子関係は？</t>
+    <rPh sb="1" eb="3">
+      <t>オヤコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツリー構造でデータを作って、深さ優先探索する。</t>
+    <rPh sb="3" eb="5">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・子から親だけ？</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・親からもどの子データが必要か分かるようにすべき？</t>
+    <rPh sb="1" eb="2">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理屈上、これで可能。</t>
+    <rPh sb="0" eb="2">
+      <t>リクツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メリットはデータを組み立てるときかなあ？</t>
+    <rPh sb="9" eb="10">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■dynamicデータの組み立て方は？</t>
+    <rPh sb="12" eb="13">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのシートがルートなのか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Project</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ModelList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子データが1件もないパターンの時に困る。</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子データの0件リストがある前提でforeachを呼ぶので、nullチェックが必要になってしまう。</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子に親への参照が書かれていた時に親のフィールドに追加しに行く。</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つまり、スクリプト記述にひと手間かかる。</t>
+    <rPh sb="9" eb="11">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デメリットはExcelの記述量が増えること。だめ。</t>
+    <rPh sb="12" eb="14">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シート名とスクリプト名が一致してたら紐づけ？</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→バリエーションがある場合は？会社版と自宅版みたいな。</t>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採用</t>
+    <rPh sb="0" eb="2">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親(Parent)が無いのがルートだが、複数あり。</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>フクスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→んなこたない。子が見つかった時点で親にフィールド作ればよい。</t>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→多分可能…でもないかも。スクリプトの代入が上手くいかないのでは？</t>
+    <rPh sb="1" eb="3">
+      <t>タブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ウマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際はExcel選ぶだけで生成できるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -209,7 +584,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +598,27 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,15 +641,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -269,16 +673,845 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4F5C77-9554-4965-A866-0D44BFDA74AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753101" y="238125"/>
+          <a:ext cx="5257800" cy="5133975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>■別々に生成して代入する</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・データ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>シートまたは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>シートで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>生成みたいな感じで分割できる。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ModelList][MethodList][FieldList]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MethodList, FieldList</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を生成してから、その結果を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ModelList</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の入力にセットする。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ソース生成の理想に近いが、以下の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>つの指定方法を決める必要がある</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>生成する順番</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：データ構造としてはツリー式になるはず。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>どのスクリプトとどのデータシートが紐づくのか。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　（しかも、会社用と自宅用などのバリエーションもある）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>専用のシート</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[Parse]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を作成して指定する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>↑そういうのはなくす方向で。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・スクリプト</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>使いまわせる、入力用シートもフレキシブルになる。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>出力テストはしやすいの？部分テストとか。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイルが多くなりがち。ネーミングも大変。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>↓あっ、結構分かりやすいかも？</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(@Model){</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@(FieldList)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@(MethodList)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D53FD301-A601-4DDF-841E-CAF2E457E0AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="238124"/>
+          <a:ext cx="5800725" cy="3390901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>■ぶら下げる（今やってる方法）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・データ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>つの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Excel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セットになる。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>データを全部</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>dynamic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で組み立ててから、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Razor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に送る。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・スクリプト</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>使いまわし不可</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>か所修正したら、同じことが書いてある違うスクリプトも修正するというメンテナンスが必要。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>全体が見えやすいかも。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スクリプト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイルなので、どんなスクリプトが出力されるかわかりやすい。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>こっちを作ってから徐々に左に分解していけば良いのでは？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1554DFC-F3D2-490A-8B16-58DB0BECC5D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11449050" y="4048125"/>
+          <a:ext cx="4676775" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>最も再入力するのは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Excel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>なので、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Excel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が最もシンプルになるように組む。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ハードコード </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スクリプト </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>&gt; Excel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　の順で複雑さは背負うべき。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -293,7 +1526,92 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4257675" y="0"/>
+          <a:off x="5953125" y="1524001"/>
+          <a:ext cx="3248025" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>【Project】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>どうする？横に伸ばす？簡単だし。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51050A1A-6220-4B71-AB91-BD147519A59A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="257174"/>
           <a:ext cx="3248025" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -333,15 +1651,59 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>【Project】</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>どうする？横に伸ばす？簡単だし。</a:t>
+            <a:t>【Model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>一覧はこうやって書こう。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>行目はフィールド名</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>行目はコメント（邪魔なら消す）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>シート名末尾に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>List</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を付ける。</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -350,136 +1712,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51050A1A-6220-4B71-AB91-BD147519A59A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4019550" y="200024"/>
-          <a:ext cx="3248025" cy="1571625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>【Model</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>一覧</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>】</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>一覧はこうやって書こう。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>行目はフィールド名</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>行目はコメント（邪魔なら消す）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>シート名末尾に</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>List</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を付ける。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -586,6 +1819,217 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>」で指定することにする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8D21AB-087F-4814-8113-F0F817BAF4D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="238124"/>
+          <a:ext cx="4019550" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>属性って複数可なんだけど、そのためにシートを作る？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>なんだかなあ。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>そういうシート作りも簡単にできればいいけど。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{471E2010-8970-4E06-B8FF-C5D3F03581F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="0"/>
+          <a:ext cx="3248025" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>出力一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>どのシートがファイル一覧なんだろうねー。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>フォルダ指定とかもいるかもー。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>このスクリプトの場合、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ModelList</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の数だけファイルが出力されるはず。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -858,10 +2302,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FE3756-B492-46CD-A9DD-1B59D911E58C}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -872,25 +2478,18 @@
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -902,13 +2501,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC96FB49-BCED-4D5A-A01F-938BB51A6162}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -920,7 +2517,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -929,21 +2526,21 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -951,13 +2548,27 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -967,12 +2578,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45609D35-AE6B-45E8-877C-6F9D05702AE1}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -985,10 +2596,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -999,16 +2610,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1016,13 +2627,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1031,13 +2642,41 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1048,11 +2687,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AE9F72-CDA4-4C7F-8140-62319153D35A}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1065,10 +2706,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1077,30 +2718,30 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1108,16 +2749,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1125,20 +2769,82 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="F4" t="s">
-        <v>33</v>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4223020D-5D78-44BE-A7A8-E3269D2783E7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
+++ b/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginpay\source\repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A327A47B-90E1-438F-899E-ABE6818EE74A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6F6048-E595-4201-A2FB-5D2A3D42599E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parse" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -576,6 +576,80 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（種類とか？）</t>
+    <rPh sb="1" eb="3">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明（不使用）</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適当な値</t>
+    <rPh sb="0" eb="2">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト用</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1502,16 +1576,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1526,8 +1600,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5953125" y="1524001"/>
-          <a:ext cx="3248025" cy="971550"/>
+          <a:off x="4829176" y="57151"/>
+          <a:ext cx="1962150" cy="885824"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1572,7 +1646,14 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>どうする？横に伸ばす？簡単だし。</a:t>
+            <a:t>通常シート。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>縦に伸ばす</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1716,16 +1797,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1740,8 +1821,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5343525" y="314325"/>
-          <a:ext cx="5067300" cy="1200150"/>
+          <a:off x="6191250" y="809624"/>
+          <a:ext cx="5067300" cy="2657476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1818,8 +1899,74 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>」で指定することにする</a:t>
-          </a:r>
+            <a:t>」で指定することにする。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>親は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>つまで。同一列に異なる親指定禁止。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>左記のようにすると</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ModelList</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[MethodList]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が追加される。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>件もないと作られないので、スクリプトの方で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>null</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>チェック必須。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1928,13 +2075,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2308,9 +2455,7 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2465,32 +2610,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2503,6 +2680,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC96FB49-BCED-4D5A-A01F-938BB51A6162}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2580,11 +2760,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45609D35-AE6B-45E8-877C-6F9D05702AE1}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2689,10 +2870,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AE9F72-CDA4-4C7F-8140-62319153D35A}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2828,16 +3012,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4223020D-5D78-44BE-A7A8-E3269D2783E7}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>

--- a/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
+++ b/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginpay\source\repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6F6048-E595-4201-A2FB-5D2A3D42599E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CD3469-1223-4C8C-A320-18A302864B8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parse" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="ModelList" sheetId="4" r:id="rId3"/>
     <sheet name="MethodList" sheetId="3" r:id="rId4"/>
     <sheet name="FieldList" sheetId="5" r:id="rId5"/>
-    <sheet name="Outputs" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -195,10 +194,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Test.cs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[StringLength(100)]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -619,13 +614,6 @@
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1790,6 +1778,180 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65EBD833-9F08-4123-869F-3184D328428F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552950" y="1905000"/>
+          <a:ext cx="5143500" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>この件数だけファイルを生産する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>適用する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Razor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スクリプト名を各行に書けばどうか？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>↑</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Output</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>行を作る。「～～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>.dat</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Output</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>があるシートは特別扱い・・・みたいな。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>★本当は各シートに出来たら一気にたくさん作れるんだけどなあ。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2059,124 +2221,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>そういうシート作りも簡単にできればいいけど。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{471E2010-8970-4E06-B8FF-C5D3F03581F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1343025" y="0"/>
-          <a:ext cx="3248025" cy="1571625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>【</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>出力一覧</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>】</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>どのシートがファイル一覧なんだろうねー。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>フォルダ指定とかもいるかもー。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>このスクリプトの場合、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ModelList</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の数だけファイルが出力されるはず。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -2455,7 +2499,9 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2464,79 +2510,79 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2544,60 +2590,60 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2615,7 +2661,7 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2628,29 +2674,29 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
         <v>73</v>
-      </c>
-      <c r="B1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
         <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2661,13 +2707,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2742,13 +2788,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2837,7 +2883,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -2851,7 +2897,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -2902,10 +2948,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2942,7 +2988,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -2970,7 +3016,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -2979,7 +3025,7 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
@@ -2990,7 +3036,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -3000,42 +3046,6 @@
       </c>
       <c r="F6" t="s">
         <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4223020D-5D78-44BE-A7A8-E3269D2783E7}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
+++ b/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginpay\source\repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toyoda\Source\Repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CD3469-1223-4C8C-A320-18A302864B8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387CD02B-3C6E-4350-B833-1512DEE2D793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Parse" sheetId="7" r:id="rId1"/>
+    <sheet name="Document" sheetId="7" r:id="rId1"/>
     <sheet name="Project" sheetId="1" r:id="rId2"/>
     <sheet name="ModelList" sheetId="4" r:id="rId3"/>
     <sheet name="MethodList" sheetId="3" r:id="rId4"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -639,6 +639,60 @@
     <rPh sb="3" eb="4">
       <t>ヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Method3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Method4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3個目のメソッド</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4個目のメソッド</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前です。</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点数です。</t>
+    <rPh sb="0" eb="2">
+      <t>テンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[StringLength(50)]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NameA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScoreB</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2499,9 +2553,7 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2661,7 +2713,7 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2886,10 +2938,10 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2900,10 +2952,10 @@
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2921,9 +2973,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -3019,13 +3069,13 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
@@ -3039,10 +3089,10 @@
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>

--- a/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
+++ b/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toyoda\Source\Repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387CD02B-3C6E-4350-B833-1512DEE2D793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CE8897-3925-4E1A-B70D-3AC250CA48B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="7" r:id="rId1"/>
     <sheet name="Project" sheetId="1" r:id="rId2"/>
     <sheet name="ModelList" sheetId="4" r:id="rId3"/>
-    <sheet name="MethodList" sheetId="3" r:id="rId4"/>
-    <sheet name="FieldList" sheetId="5" r:id="rId5"/>
+    <sheet name="FieldList" sheetId="5" r:id="rId4"/>
+    <sheet name="MethodList" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -693,6 +693,10 @@
   </si>
   <si>
     <t>ScoreB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てすと</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1711,14 +1715,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1734,7 +1738,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4581525" y="257174"/>
+          <a:off x="4552950" y="1209674"/>
           <a:ext cx="3248025" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1834,15 +1838,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1858,7 +1862,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4552950" y="1905000"/>
+          <a:off x="4524375" y="2857500"/>
           <a:ext cx="5143500" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2010,6 +2014,99 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8D21AB-087F-4814-8113-F0F817BAF4D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="238124"/>
+          <a:ext cx="4019550" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>属性って複数可なんだけど、そのためにシートを作る？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>なんだかなあ。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>そういうシート作りも簡単にできればいいけど。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2183,99 +2280,6 @@
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8D21AB-087F-4814-8113-F0F817BAF4D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6286500" y="238124"/>
-          <a:ext cx="4019550" cy="1152525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>属性って複数可なんだけど、そのためにシートを作る？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>なんだかなあ。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>そういうシート作りも簡単にできればいいけど。</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2713,8 +2717,8 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2781,9 +2785,11 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2793,7 +2799,7 @@
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2807,7 +2813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2820,8 +2826,11 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2835,7 +2844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2857,6 +2866,148 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AE9F72-CDA4-4C7F-8140-62319153D35A}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45609D35-AE6B-45E8-877C-6F9D05702AE1}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
@@ -2964,144 +3115,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AE9F72-CDA4-4C7F-8140-62319153D35A}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
+++ b/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toyoda\Source\Repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginpay\source\repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CE8897-3925-4E1A-B70D-3AC250CA48B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C708507D-2D1B-47A4-B7F8-05C1A5A9448F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Project" sheetId="1" r:id="rId2"/>
     <sheet name="ModelList" sheetId="4" r:id="rId3"/>
     <sheet name="FieldList" sheetId="5" r:id="rId4"/>
-    <sheet name="MethodList" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -65,14 +64,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テストモデル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IsMaster</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -86,17 +77,6 @@
   </si>
   <si>
     <t>キー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メソッドの名前</t>
-    <rPh sb="5" eb="7">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メソッドコメント</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -115,34 +95,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1個目のメソッド</t>
-    <rPh sb="1" eb="2">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2個目のメソッド</t>
-    <rPh sb="1" eb="2">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fire</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IceStorm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フィールドの名前</t>
     <rPh sb="6" eb="8">
       <t>ナマエ</t>
@@ -222,359 +174,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■順番</t>
-    <rPh sb="1" eb="3">
-      <t>ジュンバン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FieldList</t>
-  </si>
-  <si>
-    <t>MethodList</t>
-  </si>
-  <si>
-    <t>ModelList</t>
-  </si>
-  <si>
-    <t>ほんとは、データ構造を読んで自動で組み立てができたら良いのだが。</t>
-    <rPh sb="8" eb="10">
-      <t>コウゾウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>余裕ができたら実装だな。</t>
-    <rPh sb="0" eb="2">
-      <t>ヨユウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■スクリプトとデータシートの対応（リスト明細、または単体）</t>
-    <rPh sb="14" eb="16">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>メイサイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>タンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■親子関係は？</t>
-    <rPh sb="1" eb="3">
-      <t>オヤコ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツリー構造でデータを作って、深さ優先探索する。</t>
-    <rPh sb="3" eb="5">
-      <t>コウゾウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ユウセン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>タンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・子から親だけ？</t>
-    <rPh sb="1" eb="2">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・親からもどの子データが必要か分かるようにすべき？</t>
-    <rPh sb="1" eb="2">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>理屈上、これで可能。</t>
-    <rPh sb="0" eb="2">
-      <t>リクツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メリットはデータを組み立てるときかなあ？</t>
-    <rPh sb="9" eb="10">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■dynamicデータの組み立て方は？</t>
-    <rPh sb="12" eb="13">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>どのシートがルートなのか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・Project</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ModelList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>子データが1件もないパターンの時に困る。</t>
-    <rPh sb="0" eb="1">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>コマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>子データの0件リストがある前提でforeachを呼ぶので、nullチェックが必要になってしまう。</t>
-    <rPh sb="0" eb="1">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ゼンテイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>子に親への参照が書かれていた時に親のフィールドに追加しに行く。</t>
-    <rPh sb="0" eb="1">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>つまり、スクリプト記述にひと手間かかる。</t>
-    <rPh sb="9" eb="11">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>テマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デメリットはExcelの記述量が増えること。だめ。</t>
-    <rPh sb="12" eb="14">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シート名とスクリプト名が一致してたら紐づけ？</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヒモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>→バリエーションがある場合は？会社版と自宅版みたいな。</t>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジタク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>バン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>採用</t>
-    <rPh sb="0" eb="2">
-      <t>サイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>親(Parent)が無いのがルートだが、複数あり。</t>
-    <rPh sb="0" eb="1">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>フクスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>→んなこたない。子が見つかった時点で親にフィールド作ればよい。</t>
-    <rPh sb="8" eb="9">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジテン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>→多分可能…でもないかも。スクリプトの代入が上手くいかないのでは？</t>
-    <rPh sb="1" eb="3">
-      <t>タブン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ダイニュウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ウマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実際はExcel選ぶだけで生成できるようにする。</t>
-    <rPh sb="0" eb="2">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -621,82 +220,96 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Aaaa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>適当な値</t>
+    <t>[StringLength(50)]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ModelListの何件目かを入れる変数</t>
+    <rPh sb="10" eb="12">
+      <t>ナンケン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数</t>
     <rPh sb="0" eb="2">
-      <t>テキトウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト用</t>
-    <rPh sb="3" eb="4">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Method3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Method4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3個目のメソッド</t>
-    <rPh sb="1" eb="2">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4個目のメソッド</t>
-    <rPh sb="1" eb="2">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前です。</t>
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NameA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScoreB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前A</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>点数です。</t>
+    <t>点数B</t>
     <rPh sb="0" eb="2">
       <t>テンスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[StringLength(50)]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NameA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ScoreB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>てすと</t>
+    <t>セルに何も書いてないシートがあると落ちる説</t>
+    <rPh sb="3" eb="4">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>セツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ああああ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいいい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Miracle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Magical</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ModelList.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ModelList.3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -704,7 +317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,20 +335,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -761,12 +360,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -793,13 +390,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -1312,13 +909,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>238124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -1505,13 +1102,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -1623,15 +1220,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1646,7 +1243,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4829176" y="57151"/>
+          <a:off x="4857751" y="1704976"/>
           <a:ext cx="1962150" cy="885824"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1714,16 +1311,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1738,7 +1335,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4552950" y="1209674"/>
+          <a:off x="10277475" y="2867024"/>
           <a:ext cx="3248025" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1839,14 +1436,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2097,189 +1694,6 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>そういうシート作りも簡単にできればいいけど。</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E964AB-E3B5-4632-AAB7-2FB74D711318}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6191250" y="809624"/>
-          <a:ext cx="5067300" cy="2657476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>【</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>メソッド一覧</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>】</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>親の指定がしたい</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>どのモデルのメソッドかが分かるように記述する必要がある。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Parent</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>のフィールドに、「シート名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>.Key</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>」で指定することにする。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>親は</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>つまで。同一列に異なる親指定禁止。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>左記のようにすると</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ModelList</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>に</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>[MethodList]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>が追加される。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>件もないと作られないので、スクリプトの方で</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>null</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>チェック必須。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2555,7 +1969,7 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2564,142 +1978,9 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2717,9 +1998,7 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2730,29 +2009,29 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2763,13 +2042,16 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2785,11 +2067,9 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2799,7 +2079,7 @@
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2810,12 +2090,12 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2824,38 +2104,49 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2870,11 +2161,9 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2890,7 +2179,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -2899,30 +2188,30 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2930,19 +2219,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2950,16 +2239,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2967,19 +2256,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>83</v>
-      </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2987,126 +2276,90 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
+      <c r="F9" t="s">
+        <v>18</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45609D35-AE6B-45E8-877C-6F9D05702AE1}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
+++ b/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginpay\source\repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toyoda\Source\Repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C708507D-2D1B-47A4-B7F8-05C1A5A9448F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476E1DEC-AC3B-484F-99F7-A25A05778A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="4335" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="7" r:id="rId1"/>
     <sheet name="Project" sheetId="1" r:id="rId2"/>
-    <sheet name="ModelList" sheetId="4" r:id="rId3"/>
+    <sheet name="RootList" sheetId="4" r:id="rId3"/>
     <sheet name="FieldList" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ModelList.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フィールドの名前</t>
     <rPh sb="6" eb="8">
       <t>ナマエ</t>
@@ -170,10 +166,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ModelList.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -305,11 +297,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ModelList.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ModelList.3</t>
+    <t>RootList.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RootList.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RootList.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RootList.3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1971,7 +1971,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1980,7 +1980,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2009,29 +2009,29 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2042,16 +2042,16 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2069,7 +2069,9 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2112,13 +2114,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2126,10 +2128,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -2140,13 +2142,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2188,10 +2190,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2202,16 +2204,16 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2219,19 +2221,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2239,16 +2241,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2256,19 +2258,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2276,16 +2278,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2299,13 +2301,13 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,13 +2318,13 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2333,16 +2335,16 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2353,13 +2355,13 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
+++ b/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toyoda\Source\Repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginpay\source\repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476E1DEC-AC3B-484F-99F7-A25A05778A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4EF435-05DF-46F1-928A-A101847E7EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="4335" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="7" r:id="rId1"/>
-    <sheet name="Project" sheetId="1" r:id="rId2"/>
+    <sheet name="Settings" sheetId="1" r:id="rId2"/>
     <sheet name="RootList" sheetId="4" r:id="rId3"/>
     <sheet name="FieldList" sheetId="5" r:id="rId4"/>
   </sheets>
@@ -220,22 +220,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ModelListの何件目かを入れる変数</t>
-    <rPh sb="10" eb="12">
-      <t>ナンケン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヘンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>変数</t>
     <rPh sb="0" eb="2">
       <t>ヘンスウ</t>
@@ -310,6 +294,22 @@
   </si>
   <si>
     <t>RootList.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RootListの何件目かを入れる変数</t>
+    <rPh sb="9" eb="11">
+      <t>ナンケン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンスウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -340,12 +340,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -360,10 +366,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1221,14 +1228,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1243,8 +1250,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4857751" y="1704976"/>
-          <a:ext cx="1962150" cy="885824"/>
+          <a:off x="4857751" y="1466851"/>
+          <a:ext cx="1962150" cy="1152524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1297,6 +1304,13 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>縦に伸ばす</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>赤は触らないこと</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1980,7 +1994,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2030,28 +2044,28 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3">
         <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2128,10 +2142,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -2142,10 +2156,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
@@ -2221,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -2241,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2258,13 +2272,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
@@ -2278,13 +2292,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -2295,7 +2309,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -2315,7 +2329,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -2332,13 +2346,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
@@ -2352,13 +2366,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>

--- a/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
+++ b/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginpay\source\repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4EF435-05DF-46F1-928A-A101847E7EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2866D1-9B9A-436C-8850-D29B227A59E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -310,6 +310,51 @@
     <rPh sb="17" eb="19">
       <t>ヘンスウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力ファイル名</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SampleEntity.cs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MiracleEntity.cs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OutputFileName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RazorTemplate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Razorテンプレート名</t>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>asp/ModelCmp.dat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>asp/Model.dat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@(Model.Name).cs</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -340,7 +385,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +395,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,11 +417,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1226,16 +1278,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1250,7 +1302,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4857751" y="1466851"/>
+          <a:off x="5648326" y="266701"/>
           <a:ext cx="1962150" cy="1152524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1325,16 +1377,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1349,7 +1401,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10277475" y="2867024"/>
+          <a:off x="6981825" y="47624"/>
           <a:ext cx="3248025" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1405,7 +1457,6 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>一覧はこうやって書こう。</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -1441,6 +1492,25 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>を付ける。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RootList</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の場合、青い列は必須項目</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1449,16 +1519,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1473,8 +1543,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4524375" y="2857500"/>
-          <a:ext cx="5143500" cy="1571625"/>
+          <a:off x="5267326" y="1695450"/>
+          <a:ext cx="3600450" cy="1152525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1528,94 +1598,8 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>スクリプト名を各行に書けばどうか？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>↑</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Output</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>行を作る。「～～</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>.dat</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>」</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Output</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>があるシートは特別扱い・・・みたいな。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>★本当は各シートに出来たら一気にたくさん作れるんだけどなあ。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スクリプト名を各行に書く。</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1985,7 +1969,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2012,7 +1996,9 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2081,35 +2067,43 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2117,13 +2111,19 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2131,13 +2131,19 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2145,30 +2151,43 @@
         <v>45</v>
       </c>
       <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
+++ b/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginpay\source\repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toyoda\Source\Repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2866D1-9B9A-436C-8850-D29B227A59E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A4EBA8-4180-42FA-A9FE-48BAAD7630E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="7" r:id="rId1"/>
     <sheet name="Settings" sheetId="1" r:id="rId2"/>
     <sheet name="RootList" sheetId="4" r:id="rId3"/>
     <sheet name="FieldList" sheetId="5" r:id="rId4"/>
+    <sheet name="ValueList" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -346,23 +347,64 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>asp/ModelCmp.dat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>asp/Model.dat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>@(Model.Name).cs</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cs_asp/noname/ModelCmp.dat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cs_asp/noname/Model.dat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MultipleCamelFieldName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタで初期値があるフィールドのみ使用するフィールド名</t>
+    <rPh sb="4" eb="7">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>names</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Parent</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ああ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FieldList.0</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +425,13 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -417,12 +466,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1969,7 +2021,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2069,9 +2121,7 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2134,7 +2184,7 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2154,7 +2204,7 @@
         <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -2171,10 +2221,10 @@
         <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
         <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -2196,7 +2246,7 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2209,7 +2259,7 @@
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2228,8 +2278,11 @@
       <c r="F1" t="s">
         <v>24</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2248,8 +2301,11 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2268,8 +2324,11 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2286,7 +2345,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2306,7 +2365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2323,7 +2382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2343,7 +2402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2360,7 +2419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2380,7 +2439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2403,4 +2462,61 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA70CF6-1F8E-47E0-A7D8-0F3769849ADA}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
+++ b/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toyoda\Source\Repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginpay\source\repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A4EBA8-4180-42FA-A9FE-48BAAD7630E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AFC6F0-DFBF-4845-80A0-6B29EC5EEB8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="7" r:id="rId1"/>
@@ -1664,16 +1664,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1688,7 +1688,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6286500" y="238124"/>
+          <a:off x="8296275" y="838199"/>
           <a:ext cx="4019550" cy="1152525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2048,9 +2048,7 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>

--- a/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
+++ b/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginpay\source\repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AFC6F0-DFBF-4845-80A0-6B29EC5EEB8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492F9B47-C772-4876-9361-1C0CA8B5943F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="7" r:id="rId1"/>
@@ -351,14 +351,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cs_asp/noname/ModelCmp.dat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cs_asp/noname/Model.dat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MultipleCamelFieldName</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -398,6 +390,14 @@
   <si>
     <t>FieldList.0</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cs_asp/database/ModelCmp.dat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cs_asp/database/Model.dat</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -466,13 +466,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,13 +507,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -525,8 +528,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753101" y="238125"/>
-          <a:ext cx="5257800" cy="5133975"/>
+          <a:off x="266701" y="238126"/>
+          <a:ext cx="3800474" cy="2657474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -562,322 +565,8 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>■別々に生成して代入する</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・データ</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>シートまたは</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>シートで</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>生成みたいな感じで分割できる。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>[ModelList][MethodList][FieldList]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>MethodList, FieldList</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>を生成してから、その結果を</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ModelList</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>の入力にセットする。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ソース生成の理想に近いが、以下の</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>つの指定方法を決める必要がある</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>→</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>生成する順番</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>：データ構造としてはツリー式になるはず。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>→</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>どのスクリプトとどのデータシートが紐づくのか。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　（しかも、会社用と自宅用などのバリエーションもある）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>…</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>専用のシート</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[Parse]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>を作成して指定する。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="0000FF"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>↑そういうのはなくす方向で。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>■この方法で生成するように作り変える？</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:r>
@@ -1020,209 +709,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D53FD301-A601-4DDF-841E-CAF2E457E0AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11049000" y="238124"/>
-          <a:ext cx="5800725" cy="3390901"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>■ぶら下げる（今やってる方法）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・データ</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>つの</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Excel</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>で</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>セットになる。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>データを全部</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>dynamic</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>で組み立ててから、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Razor</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>に送る。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・スクリプト</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>使いまわし不可</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>か所修正したら、同じことが書いてある違うスクリプトも修正するというメンテナンスが必要。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>全体が見えやすいかも。</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>スクリプト</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ファイルなので、どんなスクリプトが出力されるかわかりやすい。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>こっちを作ってから徐々に左に分解していけば良いのでは？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1237,7 +733,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11449050" y="4048125"/>
+          <a:off x="247650" y="2971800"/>
           <a:ext cx="4676775" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1331,15 +827,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1354,7 +850,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5648326" y="266701"/>
+          <a:off x="6791326" y="9526"/>
           <a:ext cx="1962150" cy="1152524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1429,16 +925,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1453,8 +949,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6981825" y="47624"/>
-          <a:ext cx="3248025" cy="1571625"/>
+          <a:off x="6848475" y="2495550"/>
+          <a:ext cx="4162425" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1571,16 +1067,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1595,8 +1091,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5267326" y="1695450"/>
-          <a:ext cx="3600450" cy="1152525"/>
+          <a:off x="6848476" y="1647826"/>
+          <a:ext cx="3600450" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1665,15 +1161,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1688,7 +1184,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8296275" y="838199"/>
+          <a:off x="7686675" y="495299"/>
           <a:ext cx="4019550" cy="1152525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1743,6 +1239,104 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>そういうシート作りも簡単にできればいいけど。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8112AF-DC53-4548-9848-B9F71FB5BBF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743199" y="238126"/>
+          <a:ext cx="4029075" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>IsMaster</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のモデルに関して</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>各フィールドの初期値リストをここで設定できる。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -2021,7 +1615,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2048,13 +1642,16 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2119,7 +1716,9 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2132,7 +1731,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -2144,10 +1743,10 @@
       <c r="D1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2182,7 +1781,7 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2202,7 +1801,7 @@
         <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -2222,7 +1821,7 @@
         <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
@@ -2246,7 +1845,9 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2258,26 +1859,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>61</v>
+      <c r="G1" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2300,7 +1901,7 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2323,7 +1924,7 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2469,18 +2070,20 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2498,23 +2101,24 @@
     <row r="3" spans="1:3">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
+++ b/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginpay\source\repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492F9B47-C772-4876-9361-1C0CA8B5943F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5BE264-0F69-423F-918B-6B27EF615630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35610" yWindow="765" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -324,14 +324,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SampleEntity.cs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MiracleEntity.cs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OutputFileName</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -397,6 +389,84 @@
   </si>
   <si>
     <t>cs_asp/database/Model.dat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DbInitializer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@(Model.Name)Entity.cs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@(Model.Name).cs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cs_asp/database/DbInitializerCmp.dat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB初期化用クラス</t>
+    <rPh sb="2" eb="5">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MultipleName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数形の名称Pascal</t>
+    <rPh sb="0" eb="3">
+      <t>フクスウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Samples</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Miracles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Magicals</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IsRapTransaction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DbContextにトランザクション処理のラップを書く</t>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ApplicationDbContext</t>
+  </si>
+  <si>
+    <t>cs_asp/database/ApplicationDbContext.dat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBコンテキストクラス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -925,16 +995,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -949,7 +1019,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6848475" y="2495550"/>
+          <a:off x="390525" y="2171700"/>
           <a:ext cx="4162425" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1067,16 +1137,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1657351</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1247776</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1091,7 +1161,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6848476" y="1647826"/>
+          <a:off x="4781551" y="2162175"/>
           <a:ext cx="3600450" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1640,10 +1710,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1701,6 +1771,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1714,23 +1795,23 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1738,10 +1819,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -1749,8 +1830,11 @@
       <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1761,7 +1845,7 @@
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -1769,19 +1853,22 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>53</v>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1789,19 +1876,22 @@
       <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
-        <v>54</v>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -1809,8 +1899,11 @@
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1818,16 +1911,53 @@
         <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1878,7 +2008,7 @@
         <v>24</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1901,7 +2031,7 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1924,7 +2054,7 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2078,10 +2208,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>34</v>
@@ -2101,19 +2231,19 @@
     <row r="3" spans="1:3">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
+++ b/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginpay\source\repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginpay\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5BE264-0F69-423F-918B-6B27EF615630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D4B259-C453-413E-9CD2-A9883B55F97D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35610" yWindow="765" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -266,14 +266,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ああああ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いいいい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Miracle</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -291,10 +283,6 @@
   </si>
   <si>
     <t>RootList.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RootList.3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -384,14 +372,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>cs_asp/database/ModelCmp.dat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cs_asp/database/Model.dat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DbInitializer</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -401,10 +381,6 @@
   </si>
   <si>
     <t>@(Model.Name).cs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cs_asp/database/DbInitializerCmp.dat</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -462,11 +438,69 @@
     <t>ApplicationDbContext</t>
   </si>
   <si>
-    <t>cs_asp/database/ApplicationDbContext.dat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DBコンテキストクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MultipleCamelFieldName</t>
+  </si>
+  <si>
+    <t>複数形の名称Camel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>samples</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>miracles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>magicals</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scores</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cs_asp/database/ModelCmp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cs_asp/database/Model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cs_asp/database/DbInitializerCmp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cs_asp/database/ApplicationDbContext</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rirical</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Riricals</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールドなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値なし</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタではない</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1754,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>37</v>
@@ -1773,13 +1807,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1795,10 +1829,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1809,9 +1843,11 @@
     <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1819,10 +1855,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -1831,10 +1867,13 @@
         <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>66</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1842,10 +1881,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
         <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -1854,21 +1893,24 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1877,87 +1919,122 @@
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1973,11 +2050,9 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2008,7 +2083,7 @@
         <v>24</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2031,7 +2106,7 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2039,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -2054,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2062,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -2072,6 +2147,9 @@
       </c>
       <c r="F4" t="s">
         <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2079,7 +2157,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -2099,7 +2177,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -2116,7 +2194,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -2129,6 +2207,9 @@
       </c>
       <c r="F7" t="s">
         <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2136,7 +2217,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -2147,42 +2228,8 @@
       <c r="F8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
+      <c r="G8" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2208,10 +2255,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>34</v>
@@ -2231,19 +2278,19 @@
     <row r="3" spans="1:3">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
+++ b/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginpay\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginpay\source\repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D4B259-C453-413E-9CD2-A9883B55F97D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B50C08-1DCD-41DB-8FF2-716859CC9129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="1050" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="7" r:id="rId1"/>
@@ -1035,8 +1035,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -1054,7 +1054,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="390525" y="2171700"/>
-          <a:ext cx="4162425" cy="1571625"/>
+          <a:ext cx="2771775" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1172,15 +1172,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1657351</xdr:colOff>
+      <xdr:colOff>47626</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1247776</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>790576</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1195,7 +1195,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4781551" y="2162175"/>
+          <a:off x="3876676" y="2181225"/>
           <a:ext cx="3600450" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1252,6 +1252,96 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>スクリプト名を各行に書く。</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1885950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D7372E-B616-43A2-9D0C-F396FCBE566A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="3971925"/>
+          <a:ext cx="5343525" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Name</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は勝手に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Camel, Pascal, Plural, CamelPlural, PascalPlural</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> を作ってくれるぞ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1832,7 +1922,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
+++ b/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginpay\source\repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B50C08-1DCD-41DB-8FF2-716859CC9129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C9AE21-A996-414E-B929-884DDE617E07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="1050" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6975" yWindow="3075" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -331,27 +331,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MultipleCamelFieldName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マスタで初期値があるフィールドのみ使用するフィールド名</t>
-    <rPh sb="4" eb="7">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>names</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Key</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -394,32 +373,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MultipleName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>複数形の名称Pascal</t>
-    <rPh sb="0" eb="3">
-      <t>フクスウケイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Samples</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Miracles</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Magicals</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IsRapTransaction</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -442,29 +395,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MultipleCamelFieldName</t>
-  </si>
-  <si>
-    <t>複数形の名称Camel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>samples</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>miracles</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>magicals</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>scores</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cs_asp/database/ModelCmp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -482,10 +412,6 @@
   </si>
   <si>
     <t>Rirical</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Riricals</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1354,13 +1280,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>219074</xdr:rowOff>
@@ -1897,13 +1823,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1919,11 +1845,9 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1933,11 +1857,9 @@
     <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1956,14 +1878,8 @@
       <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1982,14 +1898,8 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1997,10 +1907,10 @@
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -2008,14 +1918,8 @@
       <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2023,25 +1927,19 @@
         <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2052,79 +1950,67 @@
         <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2140,7 +2026,7 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2153,7 +2039,7 @@
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -2172,11 +2058,8 @@
       <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2195,11 +2078,8 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2218,11 +2098,8 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2238,11 +2115,8 @@
       <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2262,7 +2136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2279,7 +2153,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2298,11 +2172,8 @@
       <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2317,9 +2188,6 @@
       </c>
       <c r="F8" t="s">
         <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2345,10 +2213,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>34</v>
@@ -2368,19 +2236,19 @@
     <row r="3" spans="1:3">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
+++ b/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginpay\source\repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C9AE21-A996-414E-B929-884DDE617E07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3F4BDC-0389-4648-B391-AD07DDEBCAC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="3075" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -327,10 +327,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>@(Model.Name).cs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Key</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -352,14 +348,6 @@
   </si>
   <si>
     <t>DbInitializer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>@(Model.Name)Entity.cs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>@(Model.Name).cs</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -427,6 +415,22 @@
   </si>
   <si>
     <t>マスタではない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Models/@(Model.Name)Entity.cs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Models/@(Model.Name).cs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Infrastructure/@(Model.Name).cs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Infrastructure/@(Model.Name).cs</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1823,13 +1827,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1847,7 +1851,9 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1907,10 +1913,10 @@
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1927,13 +1933,13 @@
         <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -1947,13 +1953,13 @@
         <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>27</v>
@@ -1964,16 +1970,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>27</v>
@@ -1984,16 +1990,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
         <v>59</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2001,16 +2007,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2213,10 +2219,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>34</v>
@@ -2236,19 +2242,19 @@
     <row r="3" spans="1:3">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
+++ b/DigitalMegaFlare/wwwroot/files/excels/Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginpay\source\repos\DigitalMegaFlare\DigitalMegaFlare\wwwroot\files\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3F4BDC-0389-4648-B391-AD07DDEBCAC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AC6F1A-B725-450B-8F3C-5DEAB7F32948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="RootList" sheetId="4" r:id="rId3"/>
     <sheet name="FieldList" sheetId="5" r:id="rId4"/>
     <sheet name="ValueList" sheetId="8" r:id="rId5"/>
+    <sheet name="AaaaOut" sheetId="9" r:id="rId6"/>
+    <sheet name="BbbbOutList" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -431,6 +433,29 @@
   </si>
   <si>
     <t>Infrastructure/@(Model.Name).cs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bbbb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cccc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dddd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cs_asp/crud/ListBox</t>
+  </si>
+  <si>
+    <t>cs_asp/crud/CheckBox</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1102,15 +1127,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
+      <xdr:colOff>28576</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>790576</xdr:colOff>
+      <xdr:colOff>771526</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1125,7 +1150,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3876676" y="2181225"/>
+          <a:off x="3857626" y="2162175"/>
           <a:ext cx="3600450" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1197,8 +1222,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1885950</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1214,7 +1239,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="371475" y="3971925"/>
-          <a:ext cx="5343525" cy="447675"/>
+          <a:ext cx="5343525" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1257,6 +1282,22 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
+            <a:t>List</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>シートの場合、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Name</a:t>
           </a:r>
           <a:r>
@@ -1270,6 +1311,29 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
             <a:t> を作ってくれるぞ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>単語の切れ目が分かるように</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>Name</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>PascalCase</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>で書くのがベスト</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1277,30 +1341,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>219074</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8D21AB-087F-4814-8113-F0F817BAF4D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31899398-9FAD-4C50-84FE-8DFBEC226F91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1308,8 +1367,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7686675" y="495299"/>
-          <a:ext cx="4019550" cy="1152525"/>
+          <a:off x="3848100" y="3114675"/>
+          <a:ext cx="4686300" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1348,23 +1407,35 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>属性って複数可なんだけど、そのためにシートを作る？</a:t>
+            <a:t>ここに書いたフィールド以外にも、</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>なんだかなあ。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>そういうシート作りも簡単にできればいいけど。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>"RootList.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キー名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[index].</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>フィールド名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で付随した値にアクセスできる。</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1373,27 +1444,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8112AF-DC53-4548-9848-B9F71FB5BBF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B438CB25-BE4B-4936-A6C4-56378B5D14E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,8 +1472,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743199" y="238126"/>
-          <a:ext cx="4029075" cy="857250"/>
+          <a:off x="400050" y="2143125"/>
+          <a:ext cx="2847975" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1440,27 +1511,230 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>親モデルとキーを指定することで</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>値をぶら下げることができる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7FEAC8-13AB-47ED-A67C-D9D8046EE7E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="266700"/>
+          <a:ext cx="3838575" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>なんとかして他で生成したコードを代入したい。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>IsMaster</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>が</a:t>
+            <a:t>AaaaOut</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>にした場合、</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>true</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>のモデルに関して</a:t>
+            <a:t>Model.AaaaOut</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に出力結果が入る。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>各フィールドの初期値リストをここで設定できる。</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>もできる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF8B1D1-B5D3-4102-881E-84387D7DA1DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="1428750"/>
+          <a:ext cx="3838575" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Model.AaaaOut.Aaaa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>でアクセス。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>よく考えたら</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Key</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>不要では？</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Name</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>使おう？</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1851,8 +2125,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2034,7 +2308,9 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2042,7 +2318,7 @@
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2211,11 +2487,14 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
@@ -2260,6 +2539,102 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A03E28-806E-4A75-AA9F-CE3F8F063B3C}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FE7133-919C-452E-8633-ED58E95712EB}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>